--- a/doc/API리스트.xlsx
+++ b/doc/API리스트.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
   <si>
     <t>순번</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -155,6 +155,10 @@
   </si>
   <si>
     <t>인벤토리에 아이템 저장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/inventory/dclick/:x/:y</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -542,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -553,7 +557,7 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="12.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="14" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.75" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
@@ -738,6 +742,17 @@
         <v>29</v>
       </c>
     </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
